--- a/swiss24.xlsx
+++ b/swiss24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Naorf\Documents\GitHub\swiss24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B900BB22-D0AA-499A-92DE-A00BD6472493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78AF809-A3DF-46C3-A65F-F27700F630A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="30">
   <si>
     <t>תאריך</t>
   </si>
@@ -69,12 +69,6 @@
     <t>Hotel Alpina</t>
   </si>
   <si>
-    <t>אוכל</t>
-  </si>
-  <si>
-    <t>Coop Supermarkt Lauterbrunnen להביא פירות</t>
-  </si>
-  <si>
     <t>ציריך</t>
   </si>
   <si>
@@ -94,6 +88,42 @@
   </si>
   <si>
     <t>soustal via lsenfluh - 11.91</t>
+  </si>
+  <si>
+    <t>לסגור</t>
+  </si>
+  <si>
+    <t>ביטוח נסיעות</t>
+  </si>
+  <si>
+    <t>ציוד</t>
+  </si>
+  <si>
+    <t>דרכון</t>
+  </si>
+  <si>
+    <t>הערות</t>
+  </si>
+  <si>
+    <t>Coop Supermarkt Lauterbrunnen סופר לא כשר</t>
+  </si>
+  <si>
+    <t>Trümmelbach Falls</t>
+  </si>
+  <si>
+    <t>Staubbachfall Waterfall</t>
+  </si>
+  <si>
+    <t>hallwilersee via beinwil am see</t>
+  </si>
+  <si>
+    <t>Aparthotel Beinwil am See</t>
+  </si>
+  <si>
+    <t>נסיעות</t>
+  </si>
+  <si>
+    <t>מצלמה</t>
   </si>
 </sst>
 </file>
@@ -101,7 +131,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-1010000]d/m/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -118,7 +148,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,6 +182,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -220,91 +256,172 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -587,25 +704,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.8984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -628,497 +746,541 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="14">
+        <v>45466</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>45466</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="J2" s="47" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="4"/>
+      <c r="J3" s="47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="4"/>
+      <c r="J4" s="47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="4"/>
+      <c r="J5" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="40">
+        <v>45467</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="5" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
-        <v>45467</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="11"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="11"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="11"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="F6" s="6"/>
+      <c r="G6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="41"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="J7" s="47" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="41"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="J8" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="41"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="J9" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9">
+        <v>8300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="42"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="37">
         <v>45468</v>
       </c>
       <c r="B11" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13" t="s">
-        <v>19</v>
+      <c r="C11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="13"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="13"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="14">
+      <c r="F11" s="8"/>
+      <c r="G11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="38"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="38"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="39"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="34">
         <v>45469</v>
       </c>
-      <c r="B15" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="24" t="s">
+      <c r="B15" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="15"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="15"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="35"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="15"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="15"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="16">
+      <c r="A19" s="31">
         <v>45470</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="44" t="s">
+        <v>27</v>
+      </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="3"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="45"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="3"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="45"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="3"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="46"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="17">
+      <c r="A23" s="28">
         <v>45471</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="6"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" s="6"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="6"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="6"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="10">
+      <c r="A27" s="5">
         <v>45472</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H27" s="11"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28" s="11"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" s="11"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" s="11"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="12">
+      <c r="A31" s="7">
         <v>45473</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H31" s="13"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H32" s="13"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H33" s="13"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="8"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H34" s="13"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="8"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="14">
+      <c r="A35" s="9">
         <v>45474</v>
       </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H35" s="15"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="10"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H36" s="15"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="10"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H37" s="15"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="10"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H38" s="15"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="10"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="16">
+      <c r="A39" s="11">
         <v>45475</v>
       </c>
       <c r="B39" s="3"/>
@@ -1127,122 +1289,127 @@
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H39" s="3"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
+      <c r="A40" s="11"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H40" s="3"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
+      <c r="A41" s="11"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H41" s="3"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="16"/>
+      <c r="A42" s="11"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H42" s="3"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="17">
+      <c r="A43" s="12">
         <v>45476</v>
       </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H43" s="6"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" s="4"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H44" s="6"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" s="4"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H45" s="6"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="4"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H46" s="6"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" s="4"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="10">
+      <c r="A47" s="5">
         <v>45477</v>
       </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="H47" s="11"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="10"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="11"/>
+      <c r="A48" s="5"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="17">
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="B15:B18"/>
     <mergeCell ref="G47:G48"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="B6:B10"/>
@@ -1250,10 +1417,11 @@
     <mergeCell ref="E6:E10"/>
     <mergeCell ref="E11:E14"/>
     <mergeCell ref="E15:E18"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A6:A10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/swiss24.xlsx
+++ b/swiss24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Naorf\Documents\GitHub\swiss24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78AF809-A3DF-46C3-A65F-F27700F630A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2F03B8-9057-4D78-82DA-A80EF922BBA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="31">
   <si>
     <t>תאריך</t>
   </si>
@@ -123,7 +123,12 @@
     <t>נסיעות</t>
   </si>
   <si>
-    <t>מצלמה</t>
+    <t>מהלך היום</t>
+  </si>
+  <si>
+    <t>נחיתה לקראת 12:00
+הגעה לחדר והתמקמות 15:00
+יציאה לסיור באזור ברגל</t>
   </si>
 </sst>
 </file>
@@ -256,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -303,112 +308,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -418,11 +326,114 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -706,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -720,6 +731,7 @@
     <col min="6" max="6" width="5.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.19921875" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -748,12 +760,15 @@
       <c r="H1" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
+      <c r="A2" s="20">
         <v>45466</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="21" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
@@ -766,54 +781,60 @@
         <v>11</v>
       </c>
       <c r="F2" s="4"/>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="24" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="4"/>
-      <c r="J2" s="47" t="s">
+      <c r="I2" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="26"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="4"/>
       <c r="D3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="21" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="4"/>
-      <c r="G3" s="15"/>
+      <c r="G3" s="24"/>
       <c r="H3" s="4"/>
-      <c r="J3" s="47" t="s">
+      <c r="I3" s="49"/>
+      <c r="J3" s="15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="26"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="26"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="22"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="15"/>
+      <c r="G4" s="24"/>
       <c r="H4" s="4"/>
-      <c r="J4" s="47" t="s">
+      <c r="I4" s="49"/>
+      <c r="J4" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="27"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="27"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="23"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="15"/>
+      <c r="G5" s="24"/>
       <c r="H5" s="4"/>
-      <c r="J5" s="47" t="s">
+      <c r="I5" s="49"/>
+      <c r="J5" s="15" t="s">
         <v>1</v>
       </c>
       <c r="K5">
@@ -821,17 +842,17 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="40">
+      <c r="A6" s="46">
         <v>45467</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="28" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="28" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="6"/>
@@ -841,7 +862,7 @@
       <c r="H6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="47" t="s">
+      <c r="J6" s="15" t="s">
         <v>5</v>
       </c>
       <c r="K6">
@@ -849,62 +870,56 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
-      <c r="B7" s="24"/>
+      <c r="A7" s="47"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="24"/>
+      <c r="E7" s="33"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H7" s="6"/>
-      <c r="J7" s="47" t="s">
+      <c r="J7" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
-      <c r="B8" s="24"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="24"/>
+      <c r="E8" s="33"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H8" s="6"/>
-      <c r="J8" s="48" t="s">
+      <c r="J8" s="16" t="s">
         <v>28</v>
       </c>
       <c r="K8">
-        <v>1400</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
-      <c r="B9" s="24"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="24"/>
+      <c r="E9" s="33"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H9" s="6"/>
-      <c r="J9" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9">
-        <v>8300</v>
-      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
-      <c r="B10" s="20"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="20"/>
+      <c r="E10" s="29"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6" t="s">
         <v>12</v>
@@ -912,10 +927,10 @@
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37">
+      <c r="A11" s="43">
         <v>45468</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="30" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="8" t="s">
@@ -924,7 +939,7 @@
       <c r="D11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="30" t="s">
         <v>6</v>
       </c>
       <c r="F11" s="8"/>
@@ -934,13 +949,13 @@
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
-      <c r="B12" s="22"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="8"/>
-      <c r="E12" s="22"/>
+      <c r="E12" s="31"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8" t="s">
         <v>12</v>
@@ -948,11 +963,11 @@
       <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
-      <c r="B13" s="22"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="22"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8" t="s">
         <v>12</v>
@@ -960,11 +975,11 @@
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
-      <c r="B14" s="23"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="23"/>
+      <c r="E14" s="32"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8" t="s">
         <v>12</v>
@@ -972,15 +987,15 @@
       <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="34">
+      <c r="A15" s="40">
         <v>45469</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="25" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="25" t="s">
         <v>6</v>
       </c>
       <c r="F15" s="10"/>
@@ -990,11 +1005,11 @@
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
-      <c r="B16" s="17"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
-      <c r="E16" s="17"/>
+      <c r="E16" s="26"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10" t="s">
         <v>12</v>
@@ -1002,11 +1017,11 @@
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
-      <c r="B17" s="17"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
-      <c r="E17" s="17"/>
+      <c r="E17" s="26"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10" t="s">
         <v>12</v>
@@ -1014,11 +1029,11 @@
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
-      <c r="B18" s="18"/>
+      <c r="A18" s="42"/>
+      <c r="B18" s="27"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
-      <c r="E18" s="18"/>
+      <c r="E18" s="27"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10" t="s">
         <v>12</v>
@@ -1026,10 +1041,10 @@
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="31">
+      <c r="A19" s="37">
         <v>45470</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="17" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="3"/>
@@ -1044,8 +1059,8 @@
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="45"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -1056,8 +1071,8 @@
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-      <c r="B21" s="45"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -1068,8 +1083,8 @@
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
-      <c r="B22" s="46"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="19"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -1080,7 +1095,7 @@
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="28">
+      <c r="A23" s="34">
         <v>45471</v>
       </c>
       <c r="B23" s="4"/>
@@ -1094,7 +1109,7 @@
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
+      <c r="A24" s="35"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -1106,7 +1121,7 @@
       <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
+      <c r="A25" s="35"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -1118,7 +1133,7 @@
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
+      <c r="A26" s="36"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -1388,7 +1403,7 @@
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
-      <c r="G47" s="19" t="s">
+      <c r="G47" s="28" t="s">
         <v>13</v>
       </c>
       <c r="H47" s="6"/>
@@ -1400,16 +1415,17 @@
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
-      <c r="G48" s="20"/>
+      <c r="G48" s="29"/>
       <c r="H48" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="B15:B18"/>
+  <mergeCells count="18">
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A6:A10"/>
     <mergeCell ref="G47:G48"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="B6:B10"/>
@@ -1417,11 +1433,11 @@
     <mergeCell ref="E6:E10"/>
     <mergeCell ref="E11:E14"/>
     <mergeCell ref="E15:E18"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="B15:B18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
